--- a/3_erettsegi/2_tablazat/3_posta/posta.xlsx
+++ b/3_erettsegi/2_tablazat/3_posta/posta.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724B0A8-0127-4695-BA8F-FA3F47A3B519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDF44FD-FEA1-42AB-96BE-64E98F7859D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$E$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Sorszám</t>
   </si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t>Távozás</t>
-  </si>
-  <si>
-    <t>Hivatalban töltött idő</t>
   </si>
   <si>
     <t>levél</t>
@@ -60,6 +60,14 @@
   <si>
     <t>Szolgáltatása</t>
   </si>
+  <si>
+    <t>Hivatalban
+ töltött idő</t>
+  </si>
+  <si>
+    <t>Hivatalban 
+töltött idő</t>
+  </si>
 </sst>
 </file>
 
@@ -74,15 +82,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,13 +104,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -112,6 +161,785 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9382716049382713E-2"/>
+          <c:y val="0.11018489355497231"/>
+          <c:w val="0.90123456790123457"/>
+          <c:h val="0.8348445917944467"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.1018518518518001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3333333333333548E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333364E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.533564814814814E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3981481481481484E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3715277777777812E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4386574074074066E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6087962962962887E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-169C-4AE5-BAD7-EC979390691E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1553567376"/>
+        <c:axId val="1553723440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1553567376"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1553723440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1553723440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1553567376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB66AC02-1C5D-4DD4-BC9B-F2837DFD8AD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,109 +1207,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
-        <v>4</v>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="8">
         <v>501</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>0.33399305555555553</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="8" t="str">
         <f>VLOOKUP($A2,$G$7:$H$9,2,TRUE)</f>
         <v>levél</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="9">
         <v>0.33604166666666663</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="9">
         <f>D2-B2</f>
         <v>2.0486111111110983E-3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
+      <c r="K2">
+        <v>601</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.34320601851851856</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.34630787037037036</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3.1018518518518001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>502</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>0.33520833333333333</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="8" t="str">
         <f t="shared" ref="C3:C38" si="0">VLOOKUP($A3,$G$7:$H$9,2,TRUE)</f>
         <v>levél</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="9">
         <v>0.33865740740740741</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <f t="shared" ref="E3:E38" si="1">D3-B3</f>
         <v>3.4490740740740766E-3</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
         <f>COUNTIFS($C:$C,H2)</f>
         <v>15</v>
       </c>
@@ -493,29 +1339,41 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="K3">
+        <v>602</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.3480787037037037</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.35141203703703705</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.3333333333333548E-3</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>701</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>0.33921296296296299</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="9">
         <v>0.34453703703703703</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="9">
         <f t="shared" si="1"/>
         <v>5.3240740740740367E-3</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="5">
         <f>AVERAGEIF($C:$C,H2,$E:$E)</f>
         <v>6.6381172839506362E-3</v>
       </c>
@@ -527,694 +1385,766 @@
         <f t="shared" si="3"/>
         <v>6.2367724867724694E-3</v>
       </c>
+      <c r="K4">
+        <v>603</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.34958333333333336</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.36291666666666672</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.3333333333333364E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>702</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>0.34120370370370368</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="9">
         <v>0.34965277777777781</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
         <v>8.4490740740741366E-3</v>
       </c>
+      <c r="K5">
+        <v>604</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.35096064814814815</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.36629629629629629</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.533564814814814E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>703</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>0.34270833333333334</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="9">
         <v>0.35015046296296298</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>7.4421296296296457E-3</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="K6">
+        <v>605</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.35296296296296298</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.36694444444444446</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.3981481481481484E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>601</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>0.34320601851851856</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="9">
         <v>0.34630787037037036</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>3.1018518518518001E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>500</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>606</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.3555787037037037</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.36929398148148151</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.3715277777777812E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>503</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.34408564814814818</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>levél</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.34778935185185184</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>3.7037037037036535E-3</v>
+      </c>
+      <c r="G8" s="2">
+        <v>600</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>503</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.34408564814814818</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="K8">
+        <v>607</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.35596064814814815</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.37034722222222222</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.4386574074074066E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>504</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.34445601851851854</v>
+      </c>
+      <c r="C9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.34778935185185184</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>3.7037037037036535E-3</v>
-      </c>
-      <c r="G8">
-        <v>600</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" s="9">
+        <v>0.34907407407407409</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>4.6180555555555558E-3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>700</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>504</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.34445601851851854</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="K9">
+        <v>608</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.37046296296296299</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.37207175925925928</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.6087962962962887E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>505</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.3460185185185185</v>
+      </c>
+      <c r="C10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D9" s="1">
-        <v>0.34907407407407409</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>4.6180555555555558E-3</v>
-      </c>
-      <c r="G9">
-        <v>700</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>505</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.3460185185185185</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="D10" s="9">
+        <v>0.35060185185185189</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>4.5833333333333837E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>506</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.346712962962963</v>
+      </c>
+      <c r="C11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.35060185185185189</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5833333333333837E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>506</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.346712962962963</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>levél</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="D11" s="9">
         <v>0.35293981481481485</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>6.2268518518518445E-3</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="5">
         <f>MAX(E:E)</f>
         <v>1.533564814814814E-2</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>602</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>0.3480787037037037</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="9">
         <v>0.35141203703703705</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>3.3333333333333548E-3</v>
       </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12">
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
         <f>INDEX(A:A,MATCH(H11,E:E,0))</f>
         <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="8">
         <v>507</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>0.34813657407407406</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="9">
         <v>0.35525462962962967</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>7.1180555555556135E-3</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="str">
         <f>VLOOKUP(H12,A:C,3)</f>
         <v>levél</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="8">
         <v>704</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>0.34858796296296296</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="9">
         <v>0.35305555555555551</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
         <v>4.4675925925925508E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="8">
         <v>603</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>0.34958333333333336</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="9">
         <v>0.36291666666666672</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
         <v>1.3333333333333364E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="8">
         <v>705</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>0.34958333333333336</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="9">
         <v>0.3576273148148148</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
         <v>8.0439814814814437E-3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="8">
         <v>604</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>0.35096064814814815</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="9">
         <v>0.36629629629629629</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
         <v>1.533564814814814E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="8">
         <v>605</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="9">
         <v>0.35296296296296298</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="9">
         <v>0.36694444444444446</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="9">
         <f t="shared" si="1"/>
         <v>1.3981481481481484E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="8">
         <v>508</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="9">
         <v>0.35333333333333333</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="9">
         <v>0.36557870370370371</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="9">
         <f t="shared" si="1"/>
         <v>1.2245370370370379E-2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="8">
         <v>606</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="9">
         <v>0.3555787037037037</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="9">
         <v>0.36929398148148151</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="9">
         <f t="shared" si="1"/>
         <v>1.3715277777777812E-2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="8">
         <v>607</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="9">
         <v>0.35596064814814815</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="9">
         <v>0.37034722222222222</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="9">
         <f t="shared" si="1"/>
         <v>1.4386574074074066E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="8">
         <v>509</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="9">
         <v>0.35645833333333332</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="9">
         <v>0.36796296296296299</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="9">
         <f t="shared" si="1"/>
         <v>1.150462962962967E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="8">
         <v>706</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="9">
         <v>0.35796296296296298</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="9">
         <v>0.36391203703703701</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="9">
         <f t="shared" si="1"/>
         <v>5.9490740740740233E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="8">
         <v>510</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="9">
         <v>0.36057870370370365</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="9">
         <v>0.36932870370370369</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="9">
         <f t="shared" si="1"/>
         <v>8.7500000000000355E-3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="8">
         <v>707</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="9">
         <v>0.36182870370370374</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="9">
         <v>0.36861111111111106</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="9">
         <f t="shared" si="1"/>
         <v>6.7824074074073204E-3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="8">
         <v>511</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="9">
         <v>0.36208333333333331</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="9">
         <v>0.37000000000000005</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="9">
         <f t="shared" si="1"/>
         <v>7.9166666666667385E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="8">
         <v>708</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="9">
         <v>0.36333333333333334</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="9">
         <v>0.37373842592592593</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="9">
         <f t="shared" si="1"/>
         <v>1.0405092592592591E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="8">
         <v>512</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="9">
         <v>0.36346064814814816</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="9">
         <v>0.37140046296296297</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="9">
         <f t="shared" si="1"/>
         <v>7.9398148148148162E-3</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="8">
         <v>709</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <v>0.36445601851851855</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="9">
         <v>0.37252314814814813</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="9">
         <f t="shared" si="1"/>
         <v>8.0671296296295769E-3</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="8">
         <v>710</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="9">
         <v>0.36557870370370371</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="9">
         <v>0.37281249999999999</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="9">
         <f t="shared" si="1"/>
         <v>7.2337962962962798E-3</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>513</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="9">
         <v>0.36583333333333329</v>
       </c>
-      <c r="C31" t="str">
+      <c r="C31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="9">
         <v>0.37207175925925928</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="9">
         <f t="shared" si="1"/>
         <v>6.2384259259259944E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="8">
         <v>514</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="9">
         <v>0.36596064814814816</v>
       </c>
-      <c r="C32" t="str">
+      <c r="C32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="9">
         <v>0.37280092592592595</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="9">
         <f t="shared" si="1"/>
         <v>6.8402777777777923E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="8">
         <v>711</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="9">
         <v>0.36932870370370369</v>
       </c>
-      <c r="C33" t="str">
+      <c r="C33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="9">
         <v>0.37381944444444443</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="9">
         <f t="shared" si="1"/>
         <v>4.4907407407407396E-3</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="8">
         <v>712</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="9">
         <v>0.37020833333333331</v>
       </c>
-      <c r="C34" t="str">
+      <c r="C34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="9">
         <v>0.37462962962962965</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="9">
         <f t="shared" si="1"/>
         <v>4.4212962962963398E-3</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="8">
         <v>608</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="9">
         <v>0.37046296296296299</v>
       </c>
-      <c r="C35" t="str">
+      <c r="C35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>csomag</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="9">
         <v>0.37207175925925928</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="9">
         <f t="shared" si="1"/>
         <v>1.6087962962962887E-3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="8">
         <v>713</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="9">
         <v>0.37096064814814816</v>
       </c>
-      <c r="C36" t="str">
+      <c r="C36" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="9">
         <v>0.37516203703703704</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="9">
         <f t="shared" si="1"/>
         <v>4.2013888888888795E-3</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="8">
         <v>515</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="9">
         <v>0.37363425925925925</v>
       </c>
-      <c r="C37" t="str">
+      <c r="C37" s="8" t="str">
         <f t="shared" si="0"/>
         <v>levél</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="9">
         <v>0.38002314814814814</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="9">
         <f t="shared" si="1"/>
         <v>6.3888888888888884E-3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="8">
         <v>714</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="9">
         <v>0.37375000000000003</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pénzügy</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="9">
         <v>0.37578703703703703</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="9">
         <f t="shared" si="1"/>
         <v>2.0370370370370039E-3</v>
       </c>
@@ -1222,5 +2152,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>